--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,7 +293,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1179,6 +1179,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5653,13 +5657,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5710,7 +5714,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5734,7 +5738,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5745,7 +5749,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5774,7 +5778,7 @@
         <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>139</v>
@@ -5827,7 +5831,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5851,7 +5855,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5862,11 +5866,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5888,10 +5892,10 @@
         <v>136</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>139</v>
@@ -5946,7 +5950,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5981,7 +5985,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6004,13 +6008,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6061,7 +6065,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6070,7 +6074,7 @@
         <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
@@ -6082,10 +6086,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6096,7 +6100,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6119,13 +6123,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6176,7 +6180,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6185,7 +6189,7 @@
         <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
@@ -6197,10 +6201,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6211,7 +6215,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6237,16 +6241,16 @@
         <v>188</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6274,10 +6278,10 @@
         <v>114</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6295,7 +6299,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6313,10 +6317,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>302</v>
@@ -6330,7 +6334,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6356,16 +6360,16 @@
         <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6393,10 +6397,10 @@
         <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6414,7 +6418,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6432,10 +6436,10 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>302</v>
@@ -6449,7 +6453,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6472,17 +6476,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6531,7 +6535,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6555,7 +6559,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6566,7 +6570,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6589,13 +6593,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6646,7 +6650,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6667,10 +6671,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6681,7 +6685,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6704,16 +6708,16 @@
         <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6763,7 +6767,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6784,10 +6788,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6798,7 +6802,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6821,16 +6825,16 @@
         <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6880,7 +6884,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6901,10 +6905,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6915,7 +6919,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6941,16 +6945,16 @@
         <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6999,7 +7003,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7020,10 +7024,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7034,7 +7038,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7057,13 +7061,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7114,7 +7118,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7138,7 +7142,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7149,7 +7153,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7178,7 +7182,7 @@
         <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>139</v>
@@ -7231,7 +7235,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7255,7 +7259,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7266,11 +7270,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7292,10 +7296,10 @@
         <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>139</v>
@@ -7350,7 +7354,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7385,7 +7389,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7411,13 +7415,13 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>207</v>
@@ -7448,10 +7452,10 @@
         <v>316</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7469,7 +7473,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>90</v>
@@ -7487,7 +7491,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>211</v>
@@ -7504,7 +7508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7527,16 +7531,16 @@
         <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>276</v>
@@ -7588,7 +7592,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7606,7 +7610,7 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>279</v>
@@ -7623,7 +7627,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7649,13 +7653,13 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>286</v>
@@ -7707,7 +7711,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7742,7 +7746,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7771,13 +7775,13 @@
         <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7826,7 +7830,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7861,7 +7865,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7887,16 +7891,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7945,7 +7949,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1029,23 +1029,23 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part　観察された身体部位</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
-観察が行われた被験者の体の部位（すなわち、標的部位）を示す。</t>
+    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-Observation.codeにあるコードだけでは暗黙的に部位はわからない場合にだけ使用される。多くのシステムでは、これはデータ中の部分情報ではなく関連する観察（観測）として記述さえる場合がある。
-もしBodySiteを個別のリソースとして処理する必要があるような使用例（たとえば、個別に識別して追跡するなど）においては、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationBodySite_VS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1063,22 +1063,19 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done　どのように実施されたか。</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.
-観測を実行するために使用されるメカニズムを示す。</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.
-Observation.codeのコードでは暗黙的に示されない場合にだけ使用する。</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
-場合によっては、観察（観測・検査）方法によっては結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationMethod_VS</t>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -5109,9 +5106,11 @@
       <c r="W28" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="X28" s="2"/>
+      <c r="X28" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5147,24 +5146,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5190,7 +5189,7 @@
         <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>324</v>
@@ -5226,9 +5225,11 @@
       <c r="W29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="X29" s="2"/>
+      <c r="X29" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5246,7 +5247,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5267,10 +5268,10 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5281,7 +5282,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5304,16 +5305,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5363,7 +5364,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5381,24 +5382,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5421,16 +5422,16 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5480,7 +5481,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5498,24 +5499,24 @@
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5538,19 +5539,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5599,7 +5600,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5611,7 +5612,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5620,10 +5621,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5634,7 +5635,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5657,13 +5658,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5714,7 +5715,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5738,7 +5739,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5749,7 +5750,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5778,7 +5779,7 @@
         <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>139</v>
@@ -5831,7 +5832,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5855,7 +5856,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5866,11 +5867,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5892,10 +5893,10 @@
         <v>136</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>139</v>
@@ -5950,7 +5951,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5985,7 +5986,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6008,13 +6009,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6065,7 +6066,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6074,7 +6075,7 @@
         <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
@@ -6086,10 +6087,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6100,7 +6101,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6123,13 +6124,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6180,7 +6181,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6189,7 +6190,7 @@
         <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
@@ -6201,10 +6202,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6215,7 +6216,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6241,16 +6242,16 @@
         <v>188</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6278,10 +6279,10 @@
         <v>114</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6299,7 +6300,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6317,10 +6318,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>302</v>
@@ -6334,7 +6335,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6360,16 +6361,16 @@
         <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6397,10 +6398,10 @@
         <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6418,7 +6419,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6436,10 +6437,10 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>302</v>
@@ -6453,7 +6454,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6476,17 +6477,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6535,7 +6536,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6559,7 +6560,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6570,7 +6571,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6593,13 +6594,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6650,7 +6651,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6671,10 +6672,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6685,7 +6686,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6708,16 +6709,16 @@
         <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6767,7 +6768,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6788,10 +6789,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6802,7 +6803,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6825,16 +6826,16 @@
         <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6884,7 +6885,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6905,10 +6906,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6919,7 +6920,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6942,19 +6943,19 @@
         <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -7003,7 +7004,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7024,10 +7025,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7038,7 +7039,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7061,13 +7062,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7118,7 +7119,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7142,7 +7143,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7153,7 +7154,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7182,7 +7183,7 @@
         <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>139</v>
@@ -7235,7 +7236,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7259,7 +7260,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7270,11 +7271,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7296,10 +7297,10 @@
         <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>139</v>
@@ -7354,7 +7355,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7389,7 +7390,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7415,13 +7416,13 @@
         <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>207</v>
@@ -7452,10 +7453,10 @@
         <v>316</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7473,7 +7474,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>90</v>
@@ -7491,7 +7492,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>211</v>
@@ -7508,7 +7509,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7531,16 +7532,16 @@
         <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>276</v>
@@ -7592,7 +7593,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7610,7 +7611,7 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>279</v>
@@ -7627,7 +7628,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7653,13 +7654,13 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>286</v>
@@ -7711,7 +7712,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7746,7 +7747,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7775,13 +7776,13 @@
         <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7830,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7865,7 +7866,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7891,16 +7892,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7949,7 +7950,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7970,10 +7971,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
